--- a/SGSST/SG-SST AÑO 2022/29_Indicadores/Indicadores segun Resolucion 0312/Indicador Proporcion de AT Mortales.xlsx
+++ b/SGSST/SG-SST AÑO 2022/29_Indicadores/Indicadores segun Resolucion 0312/Indicador Proporcion de AT Mortales.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dayana\EXCAVACIONES CORREA MEJIA S.A.S\SGSST\SG-SST AÑO 2022\29_Indicadores\Indicadores segun Resolucion 0312\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2022\29_Indicadores\Indicadores segun Resolucion 0312\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0E5749-3355-4A9D-B907-4E140DCD9FAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$H$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,9 +83,6 @@
     <t>AÑO 2022</t>
   </si>
   <si>
-    <t>CIERRE PRIMER SEMESTRE DEL AÑO 2022</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -106,11 +104,14 @@
 Al cierre del año 2022, se han  presentado tres accidente de trabajo leve. Por lo tanto, se concluye que este indicador se permanece en cero en vista que ningun accidente que se presentó fue mortal. </t>
     </r>
   </si>
+  <si>
+    <t>CIERRE AÑO 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,6 +378,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -404,9 +423,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,21 +451,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,7 +518,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -611,7 +611,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -636,7 +635,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CIERRE PRIMER SEMESTRE DEL AÑO 2022</c:v>
+                  <c:v>CIERRE AÑO 2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1718,14 +1717,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1738,241 +1737,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="28" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="B11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="24">
         <v>0</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="24">
         <v>3</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="27">
         <f>IFERROR((B12/B13)*100,"")</f>
         <v>0</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="E16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="5:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
     <mergeCell ref="E16:H29"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -1984,6 +1978,11 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" fitToHeight="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
